--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554050D-8A93-4F29-83CC-2F45E384FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24338F00-57BD-4C08-8691-3D5391BB3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22635" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -77,18 +77,12 @@
     <t>Biodiversitätsinitiative</t>
   </si>
   <si>
-    <t>Initiative biodiversité</t>
-  </si>
-  <si>
     <t>Iniziativa biodiversità</t>
   </si>
   <si>
     <t>Reform der beruflichen Vorsorge</t>
   </si>
   <si>
-    <t>Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>Iniziativa per un freno ai costi</t>
   </si>
   <si>
@@ -1332,6 +1326,12 @@
   </si>
   <si>
     <t>&lt;div style="min-height:469px" id="datawrapper-vis-tvhrm"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/tvhrm/embed.js" charset="utf-8" data-target="#datawrapper-vis-tvhrm"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/tvhrm/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>Réforme de la LPP</t>
   </si>
 </sst>
 </file>
@@ -1686,10 +1686,14 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1728,19 +1732,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" t="s">
         <v>400</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>401</v>
-      </c>
-      <c r="G2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1754,19 +1758,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3" t="s">
         <v>404</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>405</v>
-      </c>
-      <c r="G3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1780,19 +1784,19 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" t="s">
         <v>408</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>409</v>
-      </c>
-      <c r="G4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,19 +1810,19 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1832,19 +1836,19 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,22 +1859,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1881,22 +1885,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>410</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,22 +1911,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1933,22 +1937,22 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1959,22 +1963,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,22 +1989,22 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,22 +2015,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,22 +2041,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2063,22 +2067,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2089,22 +2093,22 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2150,1562 +2154,1562 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
-      </c>
-      <c r="G2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>81</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>88</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>92</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>109</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
         <v>113</v>
       </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>114</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>115</v>
-      </c>
-      <c r="G9" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
         <v>118</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>120</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
         <v>123</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>130</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>131</v>
-      </c>
-      <c r="G12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
         <v>134</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>135</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>136</v>
-      </c>
-      <c r="G13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>141</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>142</v>
-      </c>
-      <c r="G14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
         <v>145</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>146</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>147</v>
-      </c>
-      <c r="G15" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
         <v>151</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
         <v>156</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>157</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>158</v>
-      </c>
-      <c r="G17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" t="s">
         <v>161</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>162</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>163</v>
-      </c>
-      <c r="G18" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>167</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>168</v>
-      </c>
-      <c r="G19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
         <v>172</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>173</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>174</v>
-      </c>
-      <c r="G20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" t="s">
         <v>177</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>178</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>179</v>
-      </c>
-      <c r="G21" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F22" t="s">
         <v>183</v>
       </c>
-      <c r="D22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>184</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>185</v>
-      </c>
-      <c r="G22" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>189</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>190</v>
-      </c>
-      <c r="G23" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
         <v>194</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>195</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>196</v>
-      </c>
-      <c r="G24" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" t="s">
         <v>199</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>200</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" t="s">
         <v>204</v>
       </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>205</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>206</v>
-      </c>
-      <c r="G26" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" t="s">
         <v>209</v>
       </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>210</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>211</v>
-      </c>
-      <c r="G27" t="s">
-        <v>212</v>
-      </c>
-      <c r="H27" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" t="s">
         <v>215</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>216</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>217</v>
-      </c>
-      <c r="G28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H28" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" t="s">
         <v>220</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>221</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>222</v>
-      </c>
-      <c r="G29" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" t="s">
         <v>226</v>
       </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>227</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>228</v>
-      </c>
-      <c r="G30" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" t="s">
         <v>231</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>232</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>233</v>
-      </c>
-      <c r="G31" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F32" t="s">
         <v>237</v>
       </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>238</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>239</v>
-      </c>
-      <c r="G32" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" t="s">
         <v>242</v>
       </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>243</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>244</v>
-      </c>
-      <c r="G33" t="s">
-        <v>245</v>
-      </c>
-      <c r="H33" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" t="s">
         <v>248</v>
       </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>249</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>250</v>
-      </c>
-      <c r="G34" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" t="s">
         <v>253</v>
       </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>254</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>255</v>
-      </c>
-      <c r="G35" t="s">
-        <v>256</v>
-      </c>
-      <c r="H35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" t="s">
         <v>259</v>
       </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>260</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>261</v>
-      </c>
-      <c r="G36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" t="s">
         <v>264</v>
       </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>265</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H37" t="s">
         <v>266</v>
-      </c>
-      <c r="G37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H37" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" t="s">
         <v>270</v>
       </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>271</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>272</v>
-      </c>
-      <c r="G38" t="s">
-        <v>273</v>
-      </c>
-      <c r="H38" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" t="s">
         <v>275</v>
       </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>276</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>277</v>
-      </c>
-      <c r="G39" t="s">
-        <v>278</v>
-      </c>
-      <c r="H39" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" t="s">
         <v>281</v>
       </c>
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>282</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
         <v>283</v>
-      </c>
-      <c r="G40" t="s">
-        <v>284</v>
-      </c>
-      <c r="H40" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" t="s">
         <v>286</v>
       </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>287</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>288</v>
-      </c>
-      <c r="G41" t="s">
-        <v>289</v>
-      </c>
-      <c r="H41" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
+        <v>290</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>291</v>
+      </c>
+      <c r="F42" t="s">
         <v>292</v>
       </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>293</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>294</v>
-      </c>
-      <c r="G42" t="s">
-        <v>295</v>
-      </c>
-      <c r="H42" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" t="s">
         <v>297</v>
       </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>298</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>299</v>
-      </c>
-      <c r="G43" t="s">
-        <v>300</v>
-      </c>
-      <c r="H43" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" t="s">
         <v>303</v>
       </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>304</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>305</v>
-      </c>
-      <c r="G44" t="s">
-        <v>306</v>
-      </c>
-      <c r="H44" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" t="s">
         <v>308</v>
       </c>
-      <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>309</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>310</v>
-      </c>
-      <c r="G45" t="s">
-        <v>311</v>
-      </c>
-      <c r="H45" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" t="s">
         <v>314</v>
       </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>315</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>316</v>
-      </c>
-      <c r="G46" t="s">
-        <v>317</v>
-      </c>
-      <c r="H46" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>318</v>
+      </c>
+      <c r="F47" t="s">
         <v>319</v>
       </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>320</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>321</v>
-      </c>
-      <c r="G47" t="s">
-        <v>322</v>
-      </c>
-      <c r="H47" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" t="s">
         <v>325</v>
       </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>326</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>327</v>
-      </c>
-      <c r="G48" t="s">
-        <v>328</v>
-      </c>
-      <c r="H48" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F49" t="s">
         <v>330</v>
       </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>331</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>332</v>
-      </c>
-      <c r="G49" t="s">
-        <v>333</v>
-      </c>
-      <c r="H49" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>335</v>
+      </c>
+      <c r="F50" t="s">
         <v>336</v>
       </c>
-      <c r="D50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>337</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>338</v>
-      </c>
-      <c r="G50" t="s">
-        <v>339</v>
-      </c>
-      <c r="H50" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" t="s">
         <v>341</v>
       </c>
-      <c r="D51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>342</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>343</v>
-      </c>
-      <c r="G51" t="s">
-        <v>344</v>
-      </c>
-      <c r="H51" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
+        <v>346</v>
+      </c>
+      <c r="F52" t="s">
         <v>347</v>
       </c>
-      <c r="D52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>348</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>349</v>
-      </c>
-      <c r="G52" t="s">
-        <v>350</v>
-      </c>
-      <c r="H52" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
         <v>352</v>
       </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>353</v>
       </c>
-      <c r="F53" t="s">
+      <c r="H53" t="s">
         <v>354</v>
-      </c>
-      <c r="G53" t="s">
-        <v>355</v>
-      </c>
-      <c r="H53" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>357</v>
+      </c>
+      <c r="F54" t="s">
         <v>358</v>
       </c>
-      <c r="D54" t="s">
-        <v>23</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>359</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>360</v>
-      </c>
-      <c r="G54" t="s">
-        <v>361</v>
-      </c>
-      <c r="H54" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
+        <v>361</v>
+      </c>
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F55" t="s">
         <v>363</v>
       </c>
-      <c r="D55" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>364</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>365</v>
-      </c>
-      <c r="G55" t="s">
-        <v>366</v>
-      </c>
-      <c r="H55" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>367</v>
+      </c>
+      <c r="F56" t="s">
         <v>368</v>
       </c>
-      <c r="D56" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>369</v>
       </c>
-      <c r="F56" t="s">
+      <c r="H56" t="s">
         <v>370</v>
-      </c>
-      <c r="G56" t="s">
-        <v>371</v>
-      </c>
-      <c r="H56" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
+        <v>371</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>372</v>
+      </c>
+      <c r="F57" t="s">
         <v>373</v>
       </c>
-      <c r="D57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>374</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" t="s">
         <v>375</v>
-      </c>
-      <c r="G57" t="s">
-        <v>376</v>
-      </c>
-      <c r="H57" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>378</v>
+      </c>
+      <c r="F58" t="s">
         <v>379</v>
       </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>380</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>381</v>
-      </c>
-      <c r="G58" t="s">
-        <v>382</v>
-      </c>
-      <c r="H58" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
+        <v>382</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>383</v>
+      </c>
+      <c r="F59" t="s">
         <v>384</v>
       </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="G59" t="s">
         <v>385</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>386</v>
-      </c>
-      <c r="G59" t="s">
-        <v>387</v>
-      </c>
-      <c r="H59" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
+        <v>388</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>389</v>
+      </c>
+      <c r="F60" t="s">
         <v>390</v>
       </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>391</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>392</v>
-      </c>
-      <c r="G60" t="s">
-        <v>393</v>
-      </c>
-      <c r="H60" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
+        <v>393</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61" t="s">
         <v>395</v>
       </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>396</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>397</v>
-      </c>
-      <c r="G61" t="s">
-        <v>398</v>
-      </c>
-      <c r="H61" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24338F00-57BD-4C08-8691-3D5391BB3BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5872EE-0B24-4462-BB09-AAEB44A2B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -375,19 +375,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-HT61B"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HT61B/embed.js" charset="utf-8" data-target="#datawrapper-vis-HT61B"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HT61B/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>BE: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>qSyZ2</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/qSyZ2/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-qSyZ2" src="https://datawrapper.dwcdn.net/qSyZ2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-qSyZ2"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qSyZ2/embed.js" charset="utf-8" data-target="#datawrapper-vis-qSyZ2"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qSyZ2/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -407,19 +400,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-CEPXZ"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/CEPXZ/embed.js" charset="utf-8" data-target="#datawrapper-vis-CEPXZ"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/CEPXZ/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>BE: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>KTi2i</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/KTi2i/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-KTi2i" src="https://datawrapper.dwcdn.net/KTi2i/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-KTi2i"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/KTi2i/embed.js" charset="utf-8" data-target="#datawrapper-vis-KTi2i"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/KTi2i/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -512,19 +498,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-gYcHp"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gYcHp/embed.js" charset="utf-8" data-target="#datawrapper-vis-gYcHp"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gYcHp/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>FR: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>guNfD</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/guNfD/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-guNfD" src="https://datawrapper.dwcdn.net/guNfD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-guNfD"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/guNfD/embed.js" charset="utf-8" data-target="#datawrapper-vis-guNfD"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/guNfD/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -544,54 +523,33 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-kvp88"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/kvp88/embed.js" charset="utf-8" data-target="#datawrapper-vis-kvp88"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/kvp88/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>FR: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>3TvYk</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/3TvYk/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-3TvYk" src="https://datawrapper.dwcdn.net/3TvYk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-3TvYk"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/3TvYk/embed.js" charset="utf-8" data-target="#datawrapper-vis-3TvYk"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/3TvYk/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>Kanton GE</t>
   </si>
   <si>
-    <t>GE: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>HNIeb</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/HNIeb/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GE: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-HNIeb" src="https://datawrapper.dwcdn.net/HNIeb/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-HNIeb"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HNIeb/embed.js" charset="utf-8" data-target="#datawrapper-vis-HNIeb"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HNIeb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>GE: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>A6dse</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/A6dse/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GE: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-A6dse" src="https://datawrapper.dwcdn.net/A6dse/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-A6dse"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/A6dse/embed.js" charset="utf-8" data-target="#datawrapper-vis-A6dse"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/A6dse/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -700,35 +658,21 @@
     <t>Kanton JU</t>
   </si>
   <si>
-    <t>JU: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>LDyfW</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/LDyfW/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="JU: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-LDyfW" src="https://datawrapper.dwcdn.net/LDyfW/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-LDyfW"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LDyfW/embed.js" charset="utf-8" data-target="#datawrapper-vis-LDyfW"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LDyfW/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>JU: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>dcVw0</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/dcVw0/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="JU: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-dcVw0" src="https://datawrapper.dwcdn.net/dcVw0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-dcVw0"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/dcVw0/embed.js" charset="utf-8" data-target="#datawrapper-vis-dcVw0"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/dcVw0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -770,35 +714,21 @@
     <t>Kanton NE</t>
   </si>
   <si>
-    <t>NE: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>DCooz</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/DCooz/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="NE: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-DCooz" src="https://datawrapper.dwcdn.net/DCooz/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-DCooz"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/DCooz/embed.js" charset="utf-8" data-target="#datawrapper-vis-DCooz"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/DCooz/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>NE: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>IXwaq</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/IXwaq/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="NE: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-IXwaq" src="https://datawrapper.dwcdn.net/IXwaq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-IXwaq"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/IXwaq/embed.js" charset="utf-8" data-target="#datawrapper-vis-IXwaq"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/IXwaq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -1120,35 +1050,21 @@
     <t>Kanton VD</t>
   </si>
   <si>
-    <t>VD: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>4lo8a</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/4lo8a/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VD: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-4lo8a" src="https://datawrapper.dwcdn.net/4lo8a/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-4lo8a"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4lo8a/embed.js" charset="utf-8" data-target="#datawrapper-vis-4lo8a"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4lo8a/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>VD: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>JEoJA</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/JEoJA/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VD: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-JEoJA" src="https://datawrapper.dwcdn.net/JEoJA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-JEoJA"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/JEoJA/embed.js" charset="utf-8" data-target="#datawrapper-vis-JEoJA"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/JEoJA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -1171,19 +1087,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-kH0zA"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/kH0zA/embed.js" charset="utf-8" data-target="#datawrapper-vis-kH0zA"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/kH0zA/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>VS: Initiative biodiversité</t>
-  </si>
-  <si>
     <t>8hkRO</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/8hkRO/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VS: Initiative biodiversité" aria-label="Carte" id="datawrapper-chart-8hkRO" src="https://datawrapper.dwcdn.net/8hkRO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-8hkRO"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8hkRO/embed.js" charset="utf-8" data-target="#datawrapper-vis-8hkRO"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8hkRO/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -1203,19 +1112,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-7HNwb"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7HNwb/embed.js" charset="utf-8" data-target="#datawrapper-vis-7HNwb"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7HNwb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>VS: Réforme de la prévoyance professionnelle</t>
-  </si>
-  <si>
     <t>9Pwml</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/9Pwml/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VS: Réforme de la prévoyance professionnelle" aria-label="Carte" id="datawrapper-chart-9Pwml" src="https://datawrapper.dwcdn.net/9Pwml/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-9Pwml"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/9Pwml/embed.js" charset="utf-8" data-target="#datawrapper-vis-9Pwml"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/9Pwml/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -1332,6 +1234,104 @@
   </si>
   <si>
     <t>Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>BE: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-KTi2i" src="https://datawrapper.dwcdn.net/KTi2i/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>FR: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-3TvYk" src="https://datawrapper.dwcdn.net/3TvYk/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>GE: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-A6dse" src="https://datawrapper.dwcdn.net/A6dse/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>JU: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="JU: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-dcVw0" src="https://datawrapper.dwcdn.net/dcVw0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>NE: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="NE: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-IXwaq" src="https://datawrapper.dwcdn.net/IXwaq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>VD: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VD: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-JEoJA" src="https://datawrapper.dwcdn.net/JEoJA/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>VS: Réforme de la LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VS: Réforme de la LPP" aria-label="Carte" id="datawrapper-chart-9Pwml" src="https://datawrapper.dwcdn.net/9Pwml/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>BE: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-qSyZ2" src="https://datawrapper.dwcdn.net/qSyZ2/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>FR: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-guNfD" src="https://datawrapper.dwcdn.net/guNfD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>GE: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-HNIeb" src="https://datawrapper.dwcdn.net/HNIeb/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>JU: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="JU: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-LDyfW" src="https://datawrapper.dwcdn.net/LDyfW/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>NE: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="NE: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-DCooz" src="https://datawrapper.dwcdn.net/DCooz/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>VD: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VD: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-4lo8a" src="https://datawrapper.dwcdn.net/4lo8a/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>VS: Initiative pour la biodiversité</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VS: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-8hkRO" src="https://datawrapper.dwcdn.net/8hkRO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1685,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,16 +1738,16 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,16 +1764,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="G3" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,16 +1790,16 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1859,7 +1862,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1885,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2015,7 +2018,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -2041,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -2120,11 +2123,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F7E892-D4A6-47A3-BCAC-C9863B9018E3}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2334,7 +2341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2342,22 +2349,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
         <v>112</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" t="s">
         <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2368,25 +2375,25 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
         <v>116</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2394,1322 +2401,1322 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>384</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" t="s">
         <v>127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" t="s">
         <v>132</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
         <v>138</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
         <v>149</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G17" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="H17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" t="s">
-        <v>167</v>
+        <v>159</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>402</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" t="s">
-        <v>178</v>
+        <v>166</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="H21" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
-      </c>
-      <c r="G28" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="H28" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" t="s">
-        <v>221</v>
+        <v>205</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="H29" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H31" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>406</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
-      </c>
-      <c r="G32" t="s">
-        <v>238</v>
+        <v>220</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="H32" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" t="s">
-        <v>243</v>
+        <v>223</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="H36" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G37" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="G39" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="F40" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="H40" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="G41" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="H41" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="H43" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F44" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="H44" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s">
         <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="G45" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H47" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="G48" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="H48" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="G49" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="H49" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="G50" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="H50" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D51" t="s">
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F51" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="H51" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
-      </c>
-      <c r="G52" t="s">
-        <v>348</v>
+        <v>326</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="H52" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="F53" t="s">
-        <v>352</v>
-      </c>
-      <c r="G53" t="s">
-        <v>353</v>
+        <v>329</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="H53" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
         <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="F54" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G54" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F55" t="s">
-        <v>363</v>
-      </c>
-      <c r="G55" t="s">
-        <v>364</v>
+        <v>338</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="H55" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="F56" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="G56" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="H56" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
-      </c>
-      <c r="G57" t="s">
-        <v>374</v>
+        <v>346</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="H57" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="G58" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H58" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="G59" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="H59" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="F60" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G60" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="H60" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G61" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="H61" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenössische_Abstimmungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20240922_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5872EE-0B24-4462-BB09-AAEB44A2B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFD673E-7AE6-47C1-A66A-31B72177C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>Reform der beruflichen Vorsorge</t>
   </si>
   <si>
-    <t>Iniziativa per un freno ai costi</t>
-  </si>
-  <si>
     <t>de-DE</t>
   </si>
   <si>
@@ -207,14 +204,6 @@
 &lt;/script&gt;</t>
   </si>
   <si>
-    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-v0gVc" src="https://datawrapper.dwcdn.net/v0gVc/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe title="Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-rJegI" src="https://datawrapper.dwcdn.net/rJegI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-rNEdb"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/rNEdb/embed.js" charset="utf-8" data-target="#datawrapper-vis-rNEdb"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/rNEdb/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -639,19 +628,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-rSYgt"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/rSYgt/embed.js" charset="utf-8" data-target="#datawrapper-vis-rSYgt"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/rSYgt/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>GR: Iniziativa per un freno ai costi</t>
-  </si>
-  <si>
     <t>3OjWI</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/3OjWI/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GR: Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-3OjWI" src="https://datawrapper.dwcdn.net/3OjWI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-3OjWI"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/3OjWI/embed.js" charset="utf-8" data-target="#datawrapper-vis-3OjWI"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/3OjWI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -996,19 +978,12 @@
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-MfG3X"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/MfG3X/embed.js" charset="utf-8" data-target="#datawrapper-vis-MfG3X"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/MfG3X/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
-    <t>TI: Iniziativa per un freno ai costi</t>
-  </si>
-  <si>
     <t>Ervee</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/Ervee/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="TI: Iniziativa per un freno ai costi" aria-label="Mappa" id="datawrapper-chart-Ervee" src="https://datawrapper.dwcdn.net/Ervee/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
     <t>&lt;div style="min-height:495px" id="datawrapper-vis-Ervee"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Ervee/embed.js" charset="utf-8" data-target="#datawrapper-vis-Ervee"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Ervee/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
   <si>
@@ -1331,6 +1306,31 @@
   </si>
   <si>
     <t>&lt;iframe title="VS: Initiative pour la biodiversité" aria-label="Carte" id="datawrapper-chart-8hkRO" src="https://datawrapper.dwcdn.net/8hkRO/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Riforma della LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Riforma della LPP" aria-label="Mappa" id="datawrapper-chart-v0gVc" src="https://datawrapper.dwcdn.net/v0gVc/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Riforma della LPP" aria-label="Mappa" id="datawrapper-chart-rJegI" src="https://datawrapper.dwcdn.net/rJegI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>GR: Riforma della LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GR: Riforma della LPP" aria-label="Mappa" id="datawrapper-chart-3OjWI" src="https://datawrapper.dwcdn.net/3OjWI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>TI: Riforma della LPP</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TI: Riforma della LPP" aria-label="Mappa" id="datawrapper-chart-Ervee" src="https://datawrapper.dwcdn.net/Ervee/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
 &lt;/script&gt;</t>
   </si>
 </sst>
@@ -1689,7 +1689,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,19 +1735,19 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,19 +1761,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1787,19 +1787,19 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,19 +1813,19 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1839,19 +1839,19 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,22 +1862,22 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,22 +1888,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,19 +1917,19 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,19 +1943,19 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1969,19 +1969,19 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1995,19 +1995,19 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,22 +2018,22 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,22 +2044,22 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,22 +2070,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,22 +2096,22 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2123,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F7E892-D4A6-47A3-BCAC-C9863B9018E3}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2161,1562 +2161,1562 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>96</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
         <v>123</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>124</v>
-      </c>
-      <c r="F12" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
         <v>128</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>129</v>
-      </c>
-      <c r="F13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
         <v>134</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
         <v>139</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>140</v>
-      </c>
-      <c r="F15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
         <v>145</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>146</v>
       </c>
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
         <v>153</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>154</v>
       </c>
-      <c r="F18" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>161</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
         <v>169</v>
       </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>170</v>
-      </c>
-      <c r="F22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
         <v>174</v>
       </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>175</v>
-      </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
         <v>180</v>
       </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>181</v>
-      </c>
-      <c r="F24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
         <v>185</v>
       </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>186</v>
-      </c>
-      <c r="F25" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
         <v>190</v>
       </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>191</v>
-      </c>
-      <c r="F26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>195</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>200</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>213</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>218</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H32" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F39" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H39" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G40" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H41" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G42" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H42" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G43" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H43" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G44" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F45" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G45" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H45" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F46" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G48" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H48" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
+        <v>410</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F49" t="s">
-        <v>310</v>
-      </c>
-      <c r="G49" t="s">
-        <v>311</v>
+        <v>304</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="H49" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F50" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H50" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F51" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H52" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H53" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F54" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G54" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H54" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F55" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H55" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G56" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H56" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H57" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F58" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="G58" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H58" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F59" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G59" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H59" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F60" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G60" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H60" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F61" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
